--- a/storage/driver_0.xlsx
+++ b/storage/driver_0.xlsx
@@ -28,7 +28,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>7,11,6,10,9,5,0,1,8,4,4</t>
+    <t>4,6,3,5,0,7,2,9,10,11,1,8,8</t>
   </si>
   <si>
     <t>7,6,3,2,5,0,1,4,4</t>
@@ -37,7 +37,7 @@
     <t>nan,7,5,6,0,1,4,4</t>
   </si>
   <si>
-    <t>nan,3,2,1,0,0</t>
+    <t>4,6,3,5,0,7,2,1,1</t>
   </si>
   <si>
     <t>nan,1,2,3,0,0</t>
@@ -429,13 +429,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>1964</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -443,13 +443,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>1964</v>
+        <v>5122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -513,13 +513,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D8">
-        <v>440</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -527,13 +527,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D9">
-        <v>440</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -541,13 +541,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <v>490</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -555,13 +555,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>490</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -569,13 +569,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>490</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -583,13 +583,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13">
-        <v>490</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="14" spans="1:4">

--- a/storage/driver_0.xlsx
+++ b/storage/driver_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
   <si>
     <t>total_time</t>
   </si>
@@ -28,25 +28,10 @@
     <t>id</t>
   </si>
   <si>
-    <t>4,6,3,5,0,7,2,9,10,11,1,8,8</t>
+    <t>2,0,1,1</t>
   </si>
   <si>
-    <t>7,6,3,2,5,0,1,4,4</t>
-  </si>
-  <si>
-    <t>nan,7,5,6,0,1,4,4</t>
-  </si>
-  <si>
-    <t>4,6,3,5,0,7,2,1,1</t>
-  </si>
-  <si>
-    <t>nan,1,2,3,0,0</t>
-  </si>
-  <si>
-    <t>1,3,nan,0,2,2</t>
-  </si>
-  <si>
-    <t>3,1,5,nan,0,4,2,2</t>
+    <t>1,2,0,0</t>
   </si>
 </sst>
 </file>
@@ -429,13 +414,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>5122</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -443,13 +428,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>5122</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -457,13 +442,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>1372</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -471,13 +456,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>1372</v>
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -485,13 +470,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>1182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -499,13 +484,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <v>1182</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -513,13 +498,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="D8">
-        <v>1372</v>
+        <v>250</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -527,13 +512,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>1372</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -541,13 +526,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D10">
-        <v>1284</v>
+        <v>250</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -555,13 +540,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>1284</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -569,13 +554,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>1284</v>
+        <v>250</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -583,13 +568,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D13">
-        <v>1284</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -597,13 +582,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>490</v>
+        <v>250</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -611,13 +596,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>490</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -625,13 +610,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D16">
-        <v>490</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -639,13 +624,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>490</v>
+        <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -653,13 +638,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -667,13 +652,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>4</v>
-      </c>
-      <c r="C19" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -681,13 +666,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -695,13 +680,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>4</v>
-      </c>
-      <c r="C21" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -709,13 +694,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>4</v>
-      </c>
-      <c r="C22" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -723,13 +708,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>4</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>490</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -737,13 +722,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>4</v>
-      </c>
-      <c r="C24" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -751,13 +736,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>4</v>
-      </c>
-      <c r="C25" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>742</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -765,6 +750,9 @@
         <v>25</v>
       </c>
       <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">

--- a/storage/driver_0.xlsx
+++ b/storage/driver_0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>total_time</t>
   </si>
@@ -28,10 +28,40 @@
     <t>id</t>
   </si>
   <si>
-    <t>2,0,1,1</t>
-  </si>
-  <si>
-    <t>1,2,0,0</t>
+    <t>367,288,335,212,249,399,245,256,247,253,398,215,187,246,252,426,427,287,274,244,337,251,183,213,334,336,243,368,182,255,273,248,214,250,0,188,254,337</t>
+  </si>
+  <si>
+    <t>367,218,335,244,212,337,183,213,399,219,334,336,243,398,368,215,182,426,270,427,269,214,0,337</t>
+  </si>
+  <si>
+    <t>367,218,244,212,183,213,399,245,219,279,243,398,368,215,246,182,273,426,427,280,214,0,274,335</t>
+  </si>
+  <si>
+    <t>367,335,337,426,151,399,427,334,336,0,150,398,368,335</t>
+  </si>
+  <si>
+    <t>365,367,366,334,335,337,336,0,368,335</t>
+  </si>
+  <si>
+    <t>367,182,426,399,427,0,181,398,368,335</t>
+  </si>
+  <si>
+    <t>249,243,365,367,366,250,244,0,368,335</t>
+  </si>
+  <si>
+    <t>367,244,212,249,426,213,399,427,214,250,0,243,398,368,215,181</t>
+  </si>
+  <si>
+    <t>367,212,426,213,399,427,214,0,398,368,215,0</t>
+  </si>
+  <si>
+    <t>367,426,399,427,214,0,398,368,215,215</t>
+  </si>
+  <si>
+    <t>367,295,281,325,317,180,299,290,285,346,291,253,185,298,398,215,246,323,252,265,348,294,343,270,427,324,300,287,211,312,350,292,275,244,176,349,271,213,353,263,329,282,327,283,354,315,321,316,257,202,362,296,255,207,293,273,347,204,250,340,206,344,313,345,330,288,212,249,399,326,245,328,256,279,247,209,208,310,352,284,179,360,426,203,201,318,269,268,276,342,322,319,274,272,251,210,183,266,177,314,331,267,184,243,181,361,289,368,264,182,351,178,355,248,280,301,214,311,286,359,242,320,357,0,341,356,254,243</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
 </sst>
 </file>
@@ -389,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -414,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>200</v>
+        <v>33246</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -428,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>200</v>
+        <v>33246</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -442,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4">
-        <v>200</v>
+        <v>21590</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -456,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5">
-        <v>200</v>
+        <v>21590</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -470,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D6">
-        <v>200</v>
+        <v>15758</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -484,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>200</v>
+        <v>15758</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -498,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>250</v>
+        <v>11152</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -512,13 +542,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D9">
-        <v>250</v>
+        <v>11152</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -526,13 +556,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>250</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -540,13 +570,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>250</v>
+        <v>7908</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -554,13 +584,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D12">
-        <v>250</v>
+        <v>9698</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -568,13 +598,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>250</v>
+        <v>9698</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -582,13 +612,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D14">
-        <v>250</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -596,13 +626,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15">
-        <v>250</v>
+        <v>8130</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -610,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D16">
-        <v>250</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -624,13 +654,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17">
-        <v>250</v>
+        <v>5680</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -638,13 +668,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>12</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -652,13 +682,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>12</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>4218</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -666,13 +696,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -680,13 +710,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -694,13 +724,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -708,13 +738,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -722,13 +752,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -736,13 +766,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -756,6 +786,146 @@
         <v>0</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>0</v>
       </c>
     </row>

--- a/storage/driver_0.xlsx
+++ b/storage/driver_0.xlsx
@@ -28,13 +28,13 @@
     <t>id</t>
   </si>
   <si>
-    <t>367,288,335,212,249,399,245,256,247,253,398,215,187,246,252,426,427,287,274,244,337,251,183,213,334,336,243,368,182,255,273,248,214,250,0,188,254,337</t>
-  </si>
-  <si>
-    <t>367,218,335,244,212,337,183,213,399,219,334,336,243,398,368,215,182,426,270,427,269,214,0,337</t>
-  </si>
-  <si>
-    <t>367,218,244,212,183,213,399,245,219,279,243,398,368,215,246,182,273,426,427,280,214,0,274,335</t>
+    <t>285,333,359,251,180,264,177,184,310,0,427,269,266,254,294,346,295,210,265,342,354,315,331,283,321,204,202,357,178,287,203,292,340,246,282,322,311,314,268,257,289,209,185,182,313,212,245,249,324,252,279,316,353,347,248,349,179,356,253,351,299,325,244,280,326,213,298,368,344,242,176,207,367,320,215,398,301,263,288,291,362,399,272,290,214,360,201,332,255,247,243,328,312,426,330,270,318,256,284,211,206,275,350,319,274,300,281,183,296,348,181,317,267,286,273,352,341,345,329,271,208,250,293,343,276,361,323,327,355,337</t>
+  </si>
+  <si>
+    <t>246,0,243,319,244,245,318,337</t>
+  </si>
+  <si>
+    <t>427,214,215,0,257,398,368,426,258,212,399,367,213,335</t>
   </si>
   <si>
     <t>367,335,337,426,151,399,427,334,336,0,150,398,368,335</t>
@@ -444,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>33246</v>
+        <v>34122</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>33246</v>
+        <v>34122</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>21590</v>
+        <v>22122</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>21590</v>
+        <v>22122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -500,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>15758</v>
+        <v>16050</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>15758</v>
+        <v>16050</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -752,13 +752,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24">
-        <v>1156</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -766,13 +766,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25">
-        <v>1156</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="26" spans="1:4">

--- a/storage/driver_0.xlsx
+++ b/storage/driver_0.xlsx
@@ -28,34 +28,34 @@
     <t>id</t>
   </si>
   <si>
-    <t>285,333,359,251,180,264,177,184,310,0,427,269,266,254,294,346,295,210,265,342,354,315,331,283,321,204,202,357,178,287,203,292,340,246,282,322,311,314,268,257,289,209,185,182,313,212,245,249,324,252,279,316,353,347,248,349,179,356,253,351,299,325,244,280,326,213,298,368,344,242,176,207,367,320,215,398,301,263,288,291,362,399,272,290,214,360,201,332,255,247,243,328,312,426,330,270,318,256,284,211,206,275,350,319,274,300,281,183,296,348,181,317,267,286,273,352,341,345,329,271,208,250,293,343,276,361,323,327,355,337</t>
-  </si>
-  <si>
-    <t>246,0,243,319,244,245,318,337</t>
-  </si>
-  <si>
-    <t>427,214,215,0,257,398,368,426,258,212,399,367,213,335</t>
-  </si>
-  <si>
-    <t>367,335,337,426,151,399,427,334,336,0,150,398,368,335</t>
-  </si>
-  <si>
-    <t>365,367,366,334,335,337,336,0,368,335</t>
-  </si>
-  <si>
-    <t>367,182,426,399,427,0,181,398,368,335</t>
-  </si>
-  <si>
-    <t>249,243,365,367,366,250,244,0,368,335</t>
-  </si>
-  <si>
-    <t>367,244,212,249,426,213,399,427,214,250,0,243,398,368,215,181</t>
-  </si>
-  <si>
-    <t>367,212,426,213,399,427,214,0,398,368,215,0</t>
-  </si>
-  <si>
-    <t>367,426,399,427,214,0,398,368,215,215</t>
+    <t>442,448,243,443,452,426,437,453,438,440,446,219,433,182,431,365,212,451,403,398,280,244,447,444,445,183,432,257,402,435,258,436,434,213,368,366,399,218,0,449,215,427,439,441,214,279,367,450,430,337</t>
+  </si>
+  <si>
+    <t>432,372,243,402,371,426,373,280,462,368,367,375,399,433,431,461,0,370,427,279,403,398,374,244,430,337</t>
+  </si>
+  <si>
+    <t>399,398,368,0,430,403,370,374,280,244,426,372,243,279,373,462,371,402,375,367,431,427,461,335</t>
+  </si>
+  <si>
+    <t>277,368,182,257,0,183,246,318,403,275,244,280,245,276,273,243,279,462,278,402,319,274,282,367,258,281,461,335</t>
+  </si>
+  <si>
+    <t>213,372,212,368,257,214,0,258,215,398,399,427,367,426,371,335</t>
+  </si>
+  <si>
+    <t>372,214,0,319,215,398,399,368,427,367,426,371,318,335</t>
+  </si>
+  <si>
+    <t>150,372,426,337,0,334,151,398,399,368,427,367,335,336,371,335</t>
+  </si>
+  <si>
+    <t>426,269,318,315,343,362,427,213,282,201,319,313,340,209,215,367,280,301,211,245,0,204,399,178,365,316,264,314,212,177,398,179,299,361,180,183,279,317,344,341,263,359,176,203,182,202,300,214,320,321,281,210,368,208,345,181,312,372,323,244,371,207,360,311,270,206,366,342,322,298,310,181</t>
+  </si>
+  <si>
+    <t>270,266,284,331,355,183,267,361,181,212,352,326,341,184,204,340,210,367,263,253,360,249,247,296,426,372,350,214,287,255,330,290,179,316,353,282,311,201,356,345,213,271,315,324,242,332,285,281,245,344,349,314,248,320,325,244,207,321,293,333,298,209,295,357,398,250,275,292,208,347,300,362,274,327,185,328,0,268,280,348,246,313,371,318,264,276,182,351,427,342,319,317,346,291,359,322,178,272,329,279,343,312,254,299,176,289,286,273,211,368,269,252,310,206,215,301,180,203,243,265,323,177,354,257,251,256,288,399,294,202,283,0</t>
+  </si>
+  <si>
+    <t>426,269,242,359,176,203,182,362,427,202,214,213,184,368,208,201,181,367,211,245,244,0,243,204,399,178,207,360,311,270,212,206,177,398,179,205,299,361,298,310,183,215</t>
   </si>
   <si>
     <t>367,295,281,325,317,180,299,290,285,346,291,253,185,298,398,215,246,323,252,265,348,294,343,270,427,324,300,287,211,312,350,292,275,244,176,349,271,213,353,263,329,282,327,283,354,315,321,316,257,202,362,296,255,207,293,273,347,204,250,340,206,344,313,345,330,288,212,249,399,326,245,328,256,279,247,209,208,310,352,284,179,360,426,203,201,318,269,268,276,342,322,319,274,272,251,210,183,266,177,314,331,267,184,243,181,361,289,368,264,182,351,178,355,248,280,301,214,311,286,359,242,320,357,0,341,356,254,243</t>
@@ -444,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>34122</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>182</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>34122</v>
+        <v>44116</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>22122</v>
+        <v>25982</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>118</v>
+        <v>146</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>22122</v>
+        <v>25982</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -500,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>16050</v>
+        <v>19152</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>16050</v>
+        <v>19152</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -528,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>11152</v>
+        <v>12154</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -542,13 +542,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>11152</v>
+        <v>12154</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -556,13 +556,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>7908</v>
+        <v>8108</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -570,13 +570,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>7908</v>
+        <v>8108</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -584,13 +584,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>9698</v>
+        <v>10098</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -598,13 +598,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>9698</v>
+        <v>10098</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -612,13 +612,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14">
-        <v>8130</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -626,13 +626,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>8130</v>
+        <v>8330</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16">
-        <v>5680</v>
+        <v>8186</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -654,13 +654,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17">
-        <v>5680</v>
+        <v>8186</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -668,13 +668,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>4218</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -682,13 +682,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>4218</v>
+        <v>4418</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -696,13 +696,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20">
-        <v>2780</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -710,13 +710,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21">
-        <v>2780</v>
+        <v>5336</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -752,13 +752,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24">
-        <v>1546</v>
+        <v>11098</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -766,13 +766,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25">
-        <v>1546</v>
+        <v>11098</v>
       </c>
     </row>
     <row r="26" spans="1:4">

--- a/storage/driver_0.xlsx
+++ b/storage/driver_0.xlsx
@@ -28,37 +28,37 @@
     <t>id</t>
   </si>
   <si>
-    <t>442,448,243,443,452,426,437,453,438,440,446,219,433,182,431,365,212,451,403,398,280,244,447,444,445,183,432,257,402,435,258,436,434,213,368,366,399,218,0,449,215,427,439,441,214,279,367,450,430,337</t>
-  </si>
-  <si>
-    <t>432,372,243,402,371,426,373,280,462,368,367,375,399,433,431,461,0,370,427,279,403,398,374,244,430,337</t>
-  </si>
-  <si>
-    <t>399,398,368,0,430,403,370,374,280,244,426,372,243,279,373,462,371,402,375,367,431,427,461,335</t>
-  </si>
-  <si>
-    <t>277,368,182,257,0,183,246,318,403,275,244,280,245,276,273,243,279,462,278,402,319,274,282,367,258,281,461,335</t>
-  </si>
-  <si>
-    <t>213,372,212,368,257,214,0,258,215,398,399,427,367,426,371,335</t>
-  </si>
-  <si>
-    <t>372,214,0,319,215,398,399,368,427,367,426,371,318,335</t>
-  </si>
-  <si>
-    <t>150,372,426,337,0,334,151,398,399,368,427,367,335,336,371,335</t>
-  </si>
-  <si>
-    <t>426,269,318,315,343,362,427,213,282,201,319,313,340,209,215,367,280,301,211,245,0,204,399,178,365,316,264,314,212,177,398,179,299,361,180,183,279,317,344,341,263,359,176,203,182,202,300,214,320,321,281,210,368,208,345,181,312,372,323,244,371,207,360,311,270,206,366,342,322,298,310,181</t>
-  </si>
-  <si>
-    <t>270,266,284,331,355,183,267,361,181,212,352,326,341,184,204,340,210,367,263,253,360,249,247,296,426,372,350,214,287,255,330,290,179,316,353,282,311,201,356,345,213,271,315,324,242,332,285,281,245,344,349,314,248,320,325,244,207,321,293,333,298,209,295,357,398,250,275,292,208,347,300,362,274,327,185,328,0,268,280,348,246,313,371,318,264,276,182,351,427,342,319,317,346,291,359,322,178,272,329,279,343,312,254,299,176,289,286,273,211,368,269,252,310,206,215,301,180,203,243,265,323,177,354,257,251,256,288,399,294,202,283,0</t>
-  </si>
-  <si>
-    <t>426,269,242,359,176,203,182,362,427,202,214,213,184,368,208,201,181,367,211,245,244,0,243,204,399,178,207,360,311,270,212,206,177,398,179,205,299,361,298,310,183,215</t>
-  </si>
-  <si>
-    <t>367,295,281,325,317,180,299,290,285,346,291,253,185,298,398,215,246,323,252,265,348,294,343,270,427,324,300,287,211,312,350,292,275,244,176,349,271,213,353,263,329,282,327,283,354,315,321,316,257,202,362,296,255,207,293,273,347,204,250,340,206,344,313,345,330,288,212,249,399,326,245,328,256,279,247,209,208,310,352,284,179,360,426,203,201,318,269,268,276,342,322,319,274,272,251,210,183,266,177,314,331,267,184,243,181,361,289,368,264,182,351,178,355,248,280,301,214,311,286,359,242,320,357,0,341,356,254,243</t>
+    <t>365,366,487,253,367,419,458,214,399,255,337,415,273,402,213,252,409,418,427,407,368,183,404,335,256,336,254,250,414,288,182,215,412,398,372,426,406,188,411,245,413,248,417,212,403,251,287,334,247,416,408,246,187,274,405,371,249,488,519,410,0,243,518,244,457,337</t>
+  </si>
+  <si>
+    <t>182,218,215,487,398,269,427,367,371,372,426,488,519,219,368,183,458,212,214,399,0,335,337,243,213,270,334,518,336,244,457,337</t>
+  </si>
+  <si>
+    <t>443,442,182,218,215,434,365,258,487,366,398,430,367,431,432,426,219,458,448,212,403,214,436,399,452,449,279,213,402,437,450,435,441,257,451,453,280,427,433,446,488,445,368,519,440,183,438,439,0,444,243,518,244,447,457,335</t>
+  </si>
+  <si>
+    <t>487,398,427,371,367,372,426,488,519,368,458,403,399,0,335,337,518,336,402,334,457,335</t>
+  </si>
+  <si>
+    <t>365,366,487,398,427,430,367,431,426,488,519,368,458,399,0,335,337,518,336,334,457,335</t>
+  </si>
+  <si>
+    <t>209,314,176,365,361,360,487,366,177,430,367,312,431,180,202,458,214,399,282,301,279,213,270,345,362,298,359,280,427,208,311,179,368,318,183,281,264,310,181,341,315,319,215,182,317,178,340,398,269,211,372,426,245,212,344,322,206,320,210,203,300,201,323,207,371,343,299,313,488,519,321,316,0,263,244,518,204,342,457,335</t>
+  </si>
+  <si>
+    <t>182,176,178,361,360,487,177,269,398,367,184,211,426,245,202,458,212,214,399,213,270,206,203,362,462,201,298,359,207,427,208,299,179,311,488,368,519,205,183,461,181,0,242,310,243,518,244,204,457,335</t>
+  </si>
+  <si>
+    <t>182,487,398,269,367,184,211,426,245,458,212,214,399,213,270,462,298,427,299,311,488,368,519,183,461,181,0,242,310,243,518,244,457,181</t>
+  </si>
+  <si>
+    <t>182,215,298,487,280,398,274,430,367,427,431,426,299,245,488,368,519,183,458,212,214,399,0,279,518,273,213,244,457,0</t>
+  </si>
+  <si>
+    <t>182,218,215,246,487,280,398,274,427,367,371,372,426,245,488,519,219,368,183,458,212,214,399,0,279,243,273,213,518,244,457,215</t>
+  </si>
+  <si>
+    <t>215,257,258,487,398,427,371,367,372,426,249,488,519,368,458,212,214,399,0,243,518,213,244,250,457,243</t>
   </si>
   <si>
     <t>0</t>
@@ -444,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>44116</v>
+        <v>46726</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>44116</v>
+        <v>46726</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>25982</v>
+        <v>28638</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>25982</v>
+        <v>28638</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -500,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>19152</v>
+        <v>21658</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>19152</v>
+        <v>21658</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -528,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>12154</v>
+        <v>14862</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -542,13 +542,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>12154</v>
+        <v>14862</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -556,13 +556,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>8108</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -570,13 +570,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>8108</v>
+        <v>10514</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -584,13 +584,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>10098</v>
+        <v>12604</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -598,13 +598,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>10098</v>
+        <v>12604</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -612,13 +612,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14">
-        <v>8330</v>
+        <v>10836</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -626,13 +626,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>8330</v>
+        <v>10836</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16">
-        <v>8186</v>
+        <v>10442</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -654,13 +654,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17">
-        <v>8186</v>
+        <v>10442</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -668,13 +668,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>4418</v>
+        <v>7026</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -682,13 +682,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>4418</v>
+        <v>7026</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -696,13 +696,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20">
-        <v>5336</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -710,13 +710,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21">
-        <v>5336</v>
+        <v>6492</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -724,13 +724,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22">
-        <v>1506</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -738,13 +738,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23">
-        <v>1506</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -752,13 +752,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24">
-        <v>11098</v>
+        <v>15722</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -766,13 +766,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25">
-        <v>11098</v>
+        <v>15722</v>
       </c>
     </row>
     <row r="26" spans="1:4">

--- a/storage/driver_0.xlsx
+++ b/storage/driver_0.xlsx
@@ -28,37 +28,37 @@
     <t>id</t>
   </si>
   <si>
-    <t>365,366,487,253,367,419,458,214,399,255,337,415,273,402,213,252,409,418,427,407,368,183,404,335,256,336,254,250,414,288,182,215,412,398,372,426,406,188,411,245,413,248,417,212,403,251,287,334,247,416,408,246,187,274,405,371,249,488,519,410,0,243,518,244,457,337</t>
-  </si>
-  <si>
-    <t>182,218,215,487,398,269,427,367,371,372,426,488,519,219,368,183,458,212,214,399,0,335,337,243,213,270,334,518,336,244,457,337</t>
-  </si>
-  <si>
-    <t>443,442,182,218,215,434,365,258,487,366,398,430,367,431,432,426,219,458,448,212,403,214,436,399,452,449,279,213,402,437,450,435,441,257,451,453,280,427,433,446,488,445,368,519,440,183,438,439,0,444,243,518,244,447,457,335</t>
-  </si>
-  <si>
-    <t>487,398,427,371,367,372,426,488,519,368,458,403,399,0,335,337,518,336,402,334,457,335</t>
-  </si>
-  <si>
-    <t>365,366,487,398,427,430,367,431,426,488,519,368,458,399,0,335,337,518,336,334,457,335</t>
-  </si>
-  <si>
-    <t>209,314,176,365,361,360,487,366,177,430,367,312,431,180,202,458,214,399,282,301,279,213,270,345,362,298,359,280,427,208,311,179,368,318,183,281,264,310,181,341,315,319,215,182,317,178,340,398,269,211,372,426,245,212,344,322,206,320,210,203,300,201,323,207,371,343,299,313,488,519,321,316,0,263,244,518,204,342,457,335</t>
-  </si>
-  <si>
-    <t>182,176,178,361,360,487,177,269,398,367,184,211,426,245,202,458,212,214,399,213,270,206,203,362,462,201,298,359,207,427,208,299,179,311,488,368,519,205,183,461,181,0,242,310,243,518,244,204,457,335</t>
-  </si>
-  <si>
-    <t>182,487,398,269,367,184,211,426,245,458,212,214,399,213,270,462,298,427,299,311,488,368,519,183,461,181,0,242,310,243,518,244,457,181</t>
-  </si>
-  <si>
-    <t>182,215,298,487,280,398,274,430,367,427,431,426,299,245,488,368,519,183,458,212,214,399,0,279,518,273,213,244,457,0</t>
-  </si>
-  <si>
-    <t>182,218,215,246,487,280,398,274,427,367,371,372,426,245,488,519,219,368,183,458,212,214,399,0,279,243,273,213,518,244,457,215</t>
-  </si>
-  <si>
-    <t>215,257,258,487,398,427,371,367,372,426,249,488,519,368,458,212,214,399,0,243,518,213,244,250,457,243</t>
+    <t>605,494,282,311,293,556,348,0,280,315,321,284,330,245,353,180,276,201,248,488,279,209,439,211,290,326,263,398,319,360,300,257,356,184,329,324,213,206,316,367,271,313,269,183,332,249,343,600,283,606,355,310,291,359,208,599,286,342,203,603,426,244,317,602,350,325,242,289,215,281,296,185,371,632,254,487,555,427,362,361,518,341,492,287,214,519,357,351,345,251,250,179,301,294,352,181,288,662,354,247,272,285,327,399,663,210,178,635,318,265,320,458,493,204,212,634,333,633,253,298,438,368,176,275,252,344,314,246,256,661,299,328,660,264,207,630,266,331,274,349,604,255,601,457,346,267,491,322,323,243,340,295,268,273,631,182,292,347,202,177,270,312,372,337</t>
+  </si>
+  <si>
+    <t>181,555,519,299,320,202,212,206,178,359,518,180,430,179,606,269,457,603,317,244,312,431,345,316,321,214,182,399,203,600,245,360,342,282,458,314,362,361,340,372,204,398,522,201,319,208,280,322,523,426,281,313,213,632,177,556,209,599,0,602,315,341,310,210,488,215,366,264,604,487,365,211,343,207,183,427,176,344,311,631,263,301,368,270,300,279,367,630,318,298,605,601,323,492,491,633,371,337</t>
+  </si>
+  <si>
+    <t>181,519,205,213,299,242,177,202,206,212,599,178,359,0,518,602,243,310,179,606,269,457,603,488,604,244,487,211,176,214,207,399,203,427,182,183,311,600,360,245,368,458,270,362,361,367,204,184,398,522,298,605,601,201,492,495,462,494,461,208,491,523,426,335</t>
+  </si>
+  <si>
+    <t>181,242,519,213,299,212,599,0,518,602,464,243,310,606,269,457,603,488,463,604,244,487,211,214,399,182,427,183,311,600,245,368,458,270,367,184,398,298,605,601,495,462,494,461,426,335</t>
+  </si>
+  <si>
+    <t>519,273,299,213,212,599,274,0,518,602,430,457,488,215,244,487,431,214,399,182,427,183,600,245,368,458,279,367,398,298,601,495,462,494,461,280,426,335</t>
+  </si>
+  <si>
+    <t>600,245,569,368,599,0,367,243,398,318,399,488,568,319,366,244,487,365,481,246,480,335</t>
+  </si>
+  <si>
+    <t>495,366,311,310,424,431,397,0,367,368,462,430,461,425,365,396,257,258,494,335</t>
+  </si>
+  <si>
+    <t>371,518,426,458,372,461,335,492,398,457,462,367,150,487,488,334,368,439,336,337,438,519,0,151,491,399,427,181</t>
+  </si>
+  <si>
+    <t>519,335,0,334,518,0</t>
+  </si>
+  <si>
+    <t>371,518,426,458,372,461,335,492,398,457,462,367,487,488,334,368,336,337,403,519,0,491,402,399,427,215</t>
+  </si>
+  <si>
+    <t>298,519,398,340,368,274,299,438,181,518,341,439,399,311,310,426,367,0,273,427,182,243</t>
   </si>
   <si>
     <t>0</t>
@@ -444,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>264</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>46726</v>
+        <v>65742</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>264</v>
+        <v>386</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>46726</v>
+        <v>65742</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>28638</v>
+        <v>35890</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>28638</v>
+        <v>35890</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -500,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>21658</v>
+        <v>25854</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>126</v>
+        <v>168</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>21658</v>
+        <v>25854</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -528,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>14862</v>
+        <v>18748</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -542,13 +542,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>14862</v>
+        <v>18748</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -556,13 +556,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>10514</v>
+        <v>12966</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -570,13 +570,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>10514</v>
+        <v>12966</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -584,13 +584,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>12604</v>
+        <v>15704</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -598,13 +598,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>12604</v>
+        <v>15704</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -612,13 +612,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14">
-        <v>10836</v>
+        <v>11880</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -626,13 +626,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>10836</v>
+        <v>11880</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16">
-        <v>10442</v>
+        <v>11186</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -654,13 +654,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17">
-        <v>10442</v>
+        <v>11186</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -668,13 +668,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>7026</v>
+        <v>9364</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -682,13 +682,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>7026</v>
+        <v>9364</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -696,13 +696,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20">
-        <v>6492</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -710,13 +710,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21">
-        <v>6492</v>
+        <v>6944</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -724,13 +724,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22">
-        <v>2662</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -738,13 +738,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23">
-        <v>2662</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -752,13 +752,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24">
-        <v>15722</v>
+        <v>16574</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -766,13 +766,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25">
-        <v>15722</v>
+        <v>16574</v>
       </c>
     </row>
     <row r="26" spans="1:4">

--- a/storage/driver_0.xlsx
+++ b/storage/driver_0.xlsx
@@ -28,37 +28,37 @@
     <t>id</t>
   </si>
   <si>
-    <t>605,494,282,311,293,556,348,0,280,315,321,284,330,245,353,180,276,201,248,488,279,209,439,211,290,326,263,398,319,360,300,257,356,184,329,324,213,206,316,367,271,313,269,183,332,249,343,600,283,606,355,310,291,359,208,599,286,342,203,603,426,244,317,602,350,325,242,289,215,281,296,185,371,632,254,487,555,427,362,361,518,341,492,287,214,519,357,351,345,251,250,179,301,294,352,181,288,662,354,247,272,285,327,399,663,210,178,635,318,265,320,458,493,204,212,634,333,633,253,298,438,368,176,275,252,344,314,246,256,661,299,328,660,264,207,630,266,331,274,349,604,255,601,457,346,267,491,322,323,243,340,295,268,273,631,182,292,347,202,177,270,312,372,337</t>
-  </si>
-  <si>
-    <t>181,555,519,299,320,202,212,206,178,359,518,180,430,179,606,269,457,603,317,244,312,431,345,316,321,214,182,399,203,600,245,360,342,282,458,314,362,361,340,372,204,398,522,201,319,208,280,322,523,426,281,313,213,632,177,556,209,599,0,602,315,341,310,210,488,215,366,264,604,487,365,211,343,207,183,427,176,344,311,631,263,301,368,270,300,279,367,630,318,298,605,601,323,492,491,633,371,337</t>
-  </si>
-  <si>
-    <t>181,519,205,213,299,242,177,202,206,212,599,178,359,0,518,602,243,310,179,606,269,457,603,488,604,244,487,211,176,214,207,399,203,427,182,183,311,600,360,245,368,458,270,362,361,367,204,184,398,522,298,605,601,201,492,495,462,494,461,208,491,523,426,335</t>
-  </si>
-  <si>
-    <t>181,242,519,213,299,212,599,0,518,602,464,243,310,606,269,457,603,488,463,604,244,487,211,214,399,182,427,183,311,600,245,368,458,270,367,184,398,298,605,601,495,462,494,461,426,335</t>
-  </si>
-  <si>
-    <t>519,273,299,213,212,599,274,0,518,602,430,457,488,215,244,487,431,214,399,182,427,183,600,245,368,458,279,367,398,298,601,495,462,494,461,280,426,335</t>
-  </si>
-  <si>
-    <t>600,245,569,368,599,0,367,243,398,318,399,488,568,319,366,244,487,365,481,246,480,335</t>
-  </si>
-  <si>
-    <t>495,366,311,310,424,431,397,0,367,368,462,430,461,425,365,396,257,258,494,335</t>
-  </si>
-  <si>
-    <t>371,518,426,458,372,461,335,492,398,457,462,367,150,487,488,334,368,439,336,337,438,519,0,151,491,399,427,181</t>
-  </si>
-  <si>
-    <t>519,335,0,334,518,0</t>
-  </si>
-  <si>
-    <t>371,518,426,458,372,461,335,492,398,457,462,367,487,488,334,368,336,337,403,519,0,491,402,399,427,215</t>
-  </si>
-  <si>
-    <t>298,519,398,340,368,274,299,438,181,518,341,439,399,311,310,426,367,0,273,427,182,243</t>
+    <t>592,500,619,403,405,621,665,427,606,584,639,532,620,514,682,370,510,687,518,505,513,366,591,509,557,587,416,524,250,273,214,671,692,369,212,596,243,615,624,404,399,334,617,215,517,414,523,462,569,616,492,496,680,516,586,595,567,504,668,674,534,522,503,677,495,552,407,598,406,398,411,507,560,647,535,245,667,673,371,573,457,625,418,368,530,599,367,251,648,497,463,498,654,646,372,658,655,683,689,684,600,256,491,527,672,572,335,410,519,531,686,659,408,461,641,533,623,0,678,494,663,604,499,419,614,688,568,528,558,337,601,589,661,511,464,679,669,553,693,643,590,244,660,676,413,501,529,627,554,555,666,662,559,502,691,638,603,506,249,664,274,183,570,415,653,622,417,187,247,288,652,426,561,287,412,409,657,685,675,248,246,618,640,508,188,644,670,594,649,556,525,253,336,493,626,656,526,488,458,512,585,645,252,182,365,681,605,547,583,402,593,213,254,546,487,588,255,690,650,337</t>
+  </si>
+  <si>
+    <t>573,258,399,518,464,638,605,606,461,427,521,398,457,463,488,243,603,367,214,0,249,372,530,438,368,604,495,462,458,520,639,615,371,426,522,644,614,212,487,257,494,531,519,645,213,439,523,572,250,215,244,337</t>
+  </si>
+  <si>
+    <t>573,258,399,518,464,638,461,427,398,521,457,463,488,367,214,0,372,530,438,368,462,458,520,639,615,371,426,522,644,526,614,212,525,487,257,531,519,645,213,439,523,572,215,335</t>
+  </si>
+  <si>
+    <t>491,573,399,518,638,461,427,398,457,488,367,214,0,372,438,368,462,458,319,639,615,371,426,644,526,614,558,525,487,519,645,439,557,572,492,215,318,335</t>
+  </si>
+  <si>
+    <t>614,340,465,367,183,177,615,464,551,341,583,287,0,176,366,552,288,365,368,182,584,335</t>
+  </si>
+  <si>
+    <t>462,279,278,367,281,246,243,599,650,403,273,280,523,276,245,277,0,275,461,318,431,244,402,430,584,600,183,257,649,583,258,366,274,365,282,182,368,522,319,335</t>
+  </si>
+  <si>
+    <t>558,368,488,439,615,519,318,572,372,639,557,214,438,638,525,487,457,367,492,573,518,526,614,371,319,0,462,426,461,458,215,427,399,398,491,335</t>
+  </si>
+  <si>
+    <t>398,558,457,336,372,614,368,462,488,427,151,461,150,615,572,639,525,526,573,371,399,0,426,638,337,518,334,487,367,491,492,519,335,557,458,439,438,181</t>
+  </si>
+  <si>
+    <t>398,532,373,438,372,368,462,427,461,572,430,639,244,531,573,371,399,402,431,0,426,638,464,279,374,534,546,367,533,366,535,547,432,403,463,433,280,375,243,370,439,365,530,0</t>
+  </si>
+  <si>
+    <t>398,402,0,426,638,396,546,368,367,181,491,492,427,182,547,572,403,639,397,573,399,215</t>
+  </si>
+  <si>
+    <t>518,334,487,638,0,567,568,488,335,519,639,243</t>
   </si>
   <si>
     <t>0</t>
@@ -444,13 +444,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>386</v>
+        <v>498</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>65742</v>
+        <v>85282</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -458,13 +458,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>386</v>
+        <v>498</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>65742</v>
+        <v>85282</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -472,13 +472,13 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="D4">
-        <v>35890</v>
+        <v>45232</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -486,13 +486,13 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>232</v>
+        <v>294</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
       </c>
       <c r="D5">
-        <v>35890</v>
+        <v>45232</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -500,13 +500,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
       <c r="D6">
-        <v>25854</v>
+        <v>31486</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -514,13 +514,13 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>25854</v>
+        <v>31486</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -528,13 +528,13 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
       <c r="D8">
-        <v>18748</v>
+        <v>23118</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -542,13 +542,13 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
       </c>
       <c r="D9">
-        <v>18748</v>
+        <v>23118</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -556,13 +556,13 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
       </c>
       <c r="D10">
-        <v>12966</v>
+        <v>16482</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -570,13 +570,13 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
       </c>
       <c r="D11">
-        <v>12966</v>
+        <v>16482</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -584,13 +584,13 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
       </c>
       <c r="D12">
-        <v>15704</v>
+        <v>18868</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -598,13 +598,13 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
       </c>
       <c r="D13">
-        <v>15704</v>
+        <v>18868</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -612,13 +612,13 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C14" t="s">
         <v>10</v>
       </c>
       <c r="D14">
-        <v>11880</v>
+        <v>14086</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -626,13 +626,13 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="C15" t="s">
         <v>10</v>
       </c>
       <c r="D15">
-        <v>11880</v>
+        <v>14086</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -640,13 +640,13 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16">
-        <v>11186</v>
+        <v>12942</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -654,13 +654,13 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17">
-        <v>11186</v>
+        <v>12942</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -668,13 +668,13 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>12</v>
       </c>
       <c r="D18">
-        <v>9364</v>
+        <v>10718</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -682,13 +682,13 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
         <v>12</v>
       </c>
       <c r="D19">
-        <v>9364</v>
+        <v>10718</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -696,13 +696,13 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
       </c>
       <c r="D20">
-        <v>6944</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -710,13 +710,13 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>13</v>
       </c>
       <c r="D21">
-        <v>6944</v>
+        <v>8198</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -724,13 +724,13 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
       </c>
       <c r="D22">
-        <v>3312</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -738,13 +738,13 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
       </c>
       <c r="D23">
-        <v>3312</v>
+        <v>3962</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -752,13 +752,13 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24">
-        <v>16574</v>
+        <v>19732</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -766,13 +766,13 @@
         <v>24</v>
       </c>
       <c r="B25">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25">
-        <v>16574</v>
+        <v>19732</v>
       </c>
     </row>
     <row r="26" spans="1:4">
